--- a/artfynd/A 12370-2022.xlsx
+++ b/artfynd/A 12370-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,6 +1126,3378 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112323386</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>376616</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6700310</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112323384</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>376629</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6700378</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112322560</v>
+      </c>
+      <c r="B8" t="n">
+        <v>81371</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>376713</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6700739</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112323389</v>
+      </c>
+      <c r="B9" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>376538</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6700253</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112323375</v>
+      </c>
+      <c r="B10" t="n">
+        <v>81371</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>376686</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6700716</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112323373</v>
+      </c>
+      <c r="B11" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>376721</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6700785</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112323383</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90792</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>376619</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6700383</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112322618</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>376594</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6700416</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112322623</v>
+      </c>
+      <c r="B14" t="n">
+        <v>73820</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>376691</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6700659</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112323374</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>376704</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6700726</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112322598</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>376602</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6700269</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112322551</v>
+      </c>
+      <c r="B17" t="n">
+        <v>77671</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>185</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>376720</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6700740</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112323367</v>
+      </c>
+      <c r="B18" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>376725</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6700922</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112322599</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>376732</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6700749</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112322566</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>376622</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6700395</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112323385</v>
+      </c>
+      <c r="B21" t="n">
+        <v>85836</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>510</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Doftskinn</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cystostereum murrayi</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>376622</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6700336</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112323372</v>
+      </c>
+      <c r="B22" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>376710</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6700806</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112322573</v>
+      </c>
+      <c r="B23" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>376714</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6700904</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112322564</v>
+      </c>
+      <c r="B24" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>376557</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6700269</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112322589</v>
+      </c>
+      <c r="B25" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>376532</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6700274</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112322631</v>
+      </c>
+      <c r="B26" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>376695</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6700705</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112323376</v>
+      </c>
+      <c r="B27" t="n">
+        <v>81371</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>376690</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6700708</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112322622</v>
+      </c>
+      <c r="B28" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>376710</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6700741</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112322556</v>
+      </c>
+      <c r="B29" t="n">
+        <v>73813</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>308</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Chaenotheca gracillima</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>376708</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6700795</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112323388</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>376539</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6700257</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112323368</v>
+      </c>
+      <c r="B31" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>376713</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6700923</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112322581</v>
+      </c>
+      <c r="B32" t="n">
+        <v>77797</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1249</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Norsk näverlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Platismatia norvegica</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>376714</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6700747</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112323370</v>
+      </c>
+      <c r="B33" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>376719</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6700859</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112323382</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>376622</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6700398</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112322567</v>
+      </c>
+      <c r="B35" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>376705</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6700777</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112322559</v>
+      </c>
+      <c r="B36" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Gräsviggen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>376483</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6700251</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112323387</v>
+      </c>
+      <c r="B37" t="n">
+        <v>77671</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>185</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Bryoria nadvornikiana</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>376577</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6700273</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112323371</v>
+      </c>
+      <c r="B38" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Jonsmyren, Vrm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>376715</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6700826</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Östmark</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 12370-2022.xlsx
+++ b/artfynd/A 12370-2022.xlsx
@@ -2046,7 +2046,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112323374</v>
+        <v>112322598</v>
       </c>
       <c r="B15" t="n">
         <v>77636</v>
@@ -2082,14 +2082,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>376704</v>
+        <v>376602</v>
       </c>
       <c r="R15" t="n">
-        <v>6700726</v>
+        <v>6700269</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2136,22 +2136,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112322598</v>
+        <v>112322551</v>
       </c>
       <c r="B16" t="n">
-        <v>77636</v>
+        <v>77671</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2164,21 +2164,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2188,10 +2188,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>376602</v>
+        <v>376720</v>
       </c>
       <c r="R16" t="n">
-        <v>6700269</v>
+        <v>6700740</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112322551</v>
+        <v>112323374</v>
       </c>
       <c r="B17" t="n">
-        <v>77671</v>
+        <v>77636</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2266,34 +2266,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>376720</v>
+        <v>376704</v>
       </c>
       <c r="R17" t="n">
-        <v>6700740</v>
+        <v>6700726</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2340,12 +2340,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -4194,10 +4194,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112322559</v>
+        <v>112323387</v>
       </c>
       <c r="B36" t="n">
-        <v>77636</v>
+        <v>77671</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4210,34 +4210,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>376483</v>
+        <v>376577</v>
       </c>
       <c r="R36" t="n">
-        <v>6700251</v>
+        <v>6700273</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4284,22 +4284,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112323387</v>
+        <v>112323371</v>
       </c>
       <c r="B37" t="n">
-        <v>77671</v>
+        <v>77636</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4312,21 +4312,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4336,10 +4336,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>376577</v>
+        <v>376715</v>
       </c>
       <c r="R37" t="n">
-        <v>6700273</v>
+        <v>6700826</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112323371</v>
+        <v>112322559</v>
       </c>
       <c r="B38" t="n">
         <v>77636</v>
@@ -4434,14 +4434,14 @@
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>376715</v>
+        <v>376483</v>
       </c>
       <c r="R38" t="n">
-        <v>6700826</v>
+        <v>6700251</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4488,12 +4488,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>

--- a/artfynd/A 12370-2022.xlsx
+++ b/artfynd/A 12370-2022.xlsx
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112323386</v>
+        <v>112322573</v>
       </c>
       <c r="B6" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,14 +1164,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>376616</v>
+        <v>376714</v>
       </c>
       <c r="R6" t="n">
-        <v>6700310</v>
+        <v>6700904</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1218,22 +1218,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112323384</v>
+        <v>112323372</v>
       </c>
       <c r="B7" t="n">
-        <v>90800</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1242,25 +1242,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>376629</v>
+        <v>376710</v>
       </c>
       <c r="R7" t="n">
-        <v>6700378</v>
+        <v>6700806</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112322560</v>
+        <v>112323383</v>
       </c>
       <c r="B8" t="n">
-        <v>81371</v>
+        <v>90806</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1348,34 +1348,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1312</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>376713</v>
+        <v>376619</v>
       </c>
       <c r="R8" t="n">
-        <v>6700739</v>
+        <v>6700383</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1422,22 +1422,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112323389</v>
+        <v>112323367</v>
       </c>
       <c r="B9" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>376538</v>
+        <v>376725</v>
       </c>
       <c r="R9" t="n">
-        <v>6700253</v>
+        <v>6700922</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112323375</v>
+        <v>112323384</v>
       </c>
       <c r="B10" t="n">
-        <v>81371</v>
+        <v>90814</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1548,25 +1548,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1576,10 +1576,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>376686</v>
+        <v>376629</v>
       </c>
       <c r="R10" t="n">
-        <v>6700716</v>
+        <v>6700378</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112323373</v>
+        <v>112323389</v>
       </c>
       <c r="B11" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>376721</v>
+        <v>376538</v>
       </c>
       <c r="R11" t="n">
-        <v>6700785</v>
+        <v>6700253</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112323383</v>
+        <v>112323376</v>
       </c>
       <c r="B12" t="n">
-        <v>90792</v>
+        <v>81385</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1756,21 +1756,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>376619</v>
+        <v>376690</v>
       </c>
       <c r="R12" t="n">
-        <v>6700383</v>
+        <v>6700708</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112322618</v>
+        <v>112323387</v>
       </c>
       <c r="B13" t="n">
-        <v>77636</v>
+        <v>77685</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1858,34 +1858,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>376594</v>
+        <v>376577</v>
       </c>
       <c r="R13" t="n">
-        <v>6700416</v>
+        <v>6700273</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1932,22 +1932,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112322623</v>
+        <v>112322559</v>
       </c>
       <c r="B14" t="n">
-        <v>73820</v>
+        <v>77650</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1960,21 +1960,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1984,10 +1984,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>376691</v>
+        <v>376483</v>
       </c>
       <c r="R14" t="n">
-        <v>6700659</v>
+        <v>6700251</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112322598</v>
+        <v>112323368</v>
       </c>
       <c r="B15" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2082,14 +2082,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>376602</v>
+        <v>376713</v>
       </c>
       <c r="R15" t="n">
-        <v>6700269</v>
+        <v>6700923</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2136,22 +2136,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112322551</v>
+        <v>112322623</v>
       </c>
       <c r="B16" t="n">
-        <v>77671</v>
+        <v>73834</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2164,21 +2164,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2188,10 +2188,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>376720</v>
+        <v>376691</v>
       </c>
       <c r="R16" t="n">
-        <v>6700740</v>
+        <v>6700659</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112323374</v>
+        <v>112322631</v>
       </c>
       <c r="B17" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2286,14 +2286,14 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>376704</v>
+        <v>376695</v>
       </c>
       <c r="R17" t="n">
-        <v>6700726</v>
+        <v>6700705</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2340,22 +2340,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112323367</v>
+        <v>112322618</v>
       </c>
       <c r="B18" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2388,14 +2388,14 @@
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>376725</v>
+        <v>376594</v>
       </c>
       <c r="R18" t="n">
-        <v>6700922</v>
+        <v>6700416</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2442,22 +2442,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112322599</v>
+        <v>112323386</v>
       </c>
       <c r="B19" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2490,14 +2490,14 @@
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>376732</v>
+        <v>376616</v>
       </c>
       <c r="R19" t="n">
-        <v>6700749</v>
+        <v>6700310</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2544,22 +2544,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112322566</v>
+        <v>112323374</v>
       </c>
       <c r="B20" t="n">
-        <v>90800</v>
+        <v>77650</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2568,38 +2568,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>376622</v>
+        <v>376704</v>
       </c>
       <c r="R20" t="n">
-        <v>6700395</v>
+        <v>6700726</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2640,29 +2640,28 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112323385</v>
+        <v>112322598</v>
       </c>
       <c r="B21" t="n">
-        <v>85836</v>
+        <v>77650</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2675,34 +2674,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>376622</v>
+        <v>376602</v>
       </c>
       <c r="R21" t="n">
-        <v>6700336</v>
+        <v>6700269</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2749,22 +2748,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112323372</v>
+        <v>112322589</v>
       </c>
       <c r="B22" t="n">
-        <v>77636</v>
+        <v>89517</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2773,38 +2772,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>376710</v>
+        <v>376532</v>
       </c>
       <c r="R22" t="n">
-        <v>6700806</v>
+        <v>6700274</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2851,22 +2850,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112322573</v>
+        <v>112322599</v>
       </c>
       <c r="B23" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2903,10 +2902,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>376714</v>
+        <v>376732</v>
       </c>
       <c r="R23" t="n">
-        <v>6700904</v>
+        <v>6700749</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2965,10 +2964,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112322564</v>
+        <v>112322622</v>
       </c>
       <c r="B24" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3005,10 +3004,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>376557</v>
+        <v>376710</v>
       </c>
       <c r="R24" t="n">
-        <v>6700269</v>
+        <v>6700741</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3067,10 +3066,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112322589</v>
+        <v>112322581</v>
       </c>
       <c r="B25" t="n">
-        <v>89503</v>
+        <v>77811</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3079,25 +3078,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5447</v>
+        <v>1249</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3107,10 +3106,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>376532</v>
+        <v>376714</v>
       </c>
       <c r="R25" t="n">
-        <v>6700274</v>
+        <v>6700747</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3169,10 +3168,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112322631</v>
+        <v>112323370</v>
       </c>
       <c r="B26" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3205,14 +3204,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>376695</v>
+        <v>376719</v>
       </c>
       <c r="R26" t="n">
-        <v>6700705</v>
+        <v>6700859</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3259,22 +3258,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112323376</v>
+        <v>112322556</v>
       </c>
       <c r="B27" t="n">
-        <v>81371</v>
+        <v>73827</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3287,34 +3286,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>308</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>376690</v>
+        <v>376708</v>
       </c>
       <c r="R27" t="n">
-        <v>6700708</v>
+        <v>6700795</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3361,22 +3360,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112322622</v>
+        <v>112322566</v>
       </c>
       <c r="B28" t="n">
-        <v>77636</v>
+        <v>90814</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3385,25 +3384,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3413,10 +3412,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>376710</v>
+        <v>376622</v>
       </c>
       <c r="R28" t="n">
-        <v>6700741</v>
+        <v>6700395</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3457,6 +3456,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112322556</v>
+        <v>112322560</v>
       </c>
       <c r="B29" t="n">
-        <v>73813</v>
+        <v>81385</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3491,21 +3491,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>308</v>
+        <v>1312</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3515,10 +3515,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>376708</v>
+        <v>376713</v>
       </c>
       <c r="R29" t="n">
-        <v>6700795</v>
+        <v>6700739</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112323388</v>
+        <v>112323371</v>
       </c>
       <c r="B30" t="n">
-        <v>5113</v>
+        <v>77650</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3589,43 +3589,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>376539</v>
+        <v>376715</v>
       </c>
       <c r="R30" t="n">
-        <v>6700257</v>
+        <v>6700826</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3684,10 +3679,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112323368</v>
+        <v>112322567</v>
       </c>
       <c r="B31" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3720,14 +3715,14 @@
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>376713</v>
+        <v>376705</v>
       </c>
       <c r="R31" t="n">
-        <v>6700923</v>
+        <v>6700777</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3774,22 +3769,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112322581</v>
+        <v>112323385</v>
       </c>
       <c r="B32" t="n">
-        <v>77797</v>
+        <v>85850</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3798,38 +3793,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1249</v>
+        <v>510</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>376714</v>
+        <v>376622</v>
       </c>
       <c r="R32" t="n">
-        <v>6700747</v>
+        <v>6700336</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3876,22 +3871,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112323370</v>
+        <v>112323388</v>
       </c>
       <c r="B33" t="n">
-        <v>77636</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3900,38 +3895,43 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>376719</v>
+        <v>376539</v>
       </c>
       <c r="R33" t="n">
-        <v>6700859</v>
+        <v>6700257</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112323382</v>
+        <v>112322551</v>
       </c>
       <c r="B34" t="n">
-        <v>90800</v>
+        <v>77685</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4002,38 +4002,38 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>376622</v>
+        <v>376720</v>
       </c>
       <c r="R34" t="n">
-        <v>6700398</v>
+        <v>6700740</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4080,22 +4080,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112322567</v>
+        <v>112323373</v>
       </c>
       <c r="B35" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4128,14 +4128,14 @@
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>376705</v>
+        <v>376721</v>
       </c>
       <c r="R35" t="n">
-        <v>6700777</v>
+        <v>6700785</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4182,22 +4182,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112323387</v>
+        <v>112323382</v>
       </c>
       <c r="B36" t="n">
-        <v>77671</v>
+        <v>90814</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4206,25 +4206,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>185</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4234,10 +4234,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>376577</v>
+        <v>376622</v>
       </c>
       <c r="R36" t="n">
-        <v>6700273</v>
+        <v>6700398</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112323371</v>
+        <v>112322564</v>
       </c>
       <c r="B37" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4332,14 +4332,14 @@
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>376715</v>
+        <v>376557</v>
       </c>
       <c r="R37" t="n">
-        <v>6700826</v>
+        <v>6700269</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4386,22 +4386,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112322559</v>
+        <v>112323375</v>
       </c>
       <c r="B38" t="n">
-        <v>77636</v>
+        <v>81385</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4414,34 +4414,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>376483</v>
+        <v>376686</v>
       </c>
       <c r="R38" t="n">
-        <v>6700251</v>
+        <v>6700716</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4488,12 +4488,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>

--- a/artfynd/A 12370-2022.xlsx
+++ b/artfynd/A 12370-2022.xlsx
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112322573</v>
+        <v>112323367</v>
       </c>
       <c r="B6" t="n">
         <v>77650</v>
@@ -1164,14 +1164,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>376714</v>
+        <v>376725</v>
       </c>
       <c r="R6" t="n">
-        <v>6700904</v>
+        <v>6700922</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1218,19 +1218,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112323372</v>
+        <v>112322622</v>
       </c>
       <c r="B7" t="n">
         <v>77650</v>
@@ -1266,14 +1266,14 @@
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q7" t="n">
         <v>376710</v>
       </c>
       <c r="R7" t="n">
-        <v>6700806</v>
+        <v>6700741</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1320,22 +1320,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112323383</v>
+        <v>112322598</v>
       </c>
       <c r="B8" t="n">
-        <v>90806</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1348,34 +1348,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>376619</v>
+        <v>376602</v>
       </c>
       <c r="R8" t="n">
-        <v>6700383</v>
+        <v>6700269</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1422,22 +1422,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112323367</v>
+        <v>112323375</v>
       </c>
       <c r="B9" t="n">
-        <v>77650</v>
+        <v>81385</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>376725</v>
+        <v>376686</v>
       </c>
       <c r="R9" t="n">
-        <v>6700922</v>
+        <v>6700716</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1536,10 +1536,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112323384</v>
+        <v>112323388</v>
       </c>
       <c r="B10" t="n">
-        <v>90814</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1552,34 +1552,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>376629</v>
+        <v>376539</v>
       </c>
       <c r="R10" t="n">
-        <v>6700378</v>
+        <v>6700257</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1638,7 +1643,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112323389</v>
+        <v>112322567</v>
       </c>
       <c r="B11" t="n">
         <v>77650</v>
@@ -1674,14 +1679,14 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>376538</v>
+        <v>376705</v>
       </c>
       <c r="R11" t="n">
-        <v>6700253</v>
+        <v>6700777</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,22 +1733,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112323376</v>
+        <v>112322566</v>
       </c>
       <c r="B12" t="n">
-        <v>81385</v>
+        <v>90814</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1752,38 +1757,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>376690</v>
+        <v>376622</v>
       </c>
       <c r="R12" t="n">
-        <v>6700708</v>
+        <v>6700395</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1824,28 +1829,29 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112323387</v>
+        <v>112322589</v>
       </c>
       <c r="B13" t="n">
-        <v>77685</v>
+        <v>89517</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1854,38 +1860,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>185</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>376577</v>
+        <v>376532</v>
       </c>
       <c r="R13" t="n">
-        <v>6700273</v>
+        <v>6700274</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1932,19 +1938,19 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112322559</v>
+        <v>112323373</v>
       </c>
       <c r="B14" t="n">
         <v>77650</v>
@@ -1980,14 +1986,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>376483</v>
+        <v>376721</v>
       </c>
       <c r="R14" t="n">
-        <v>6700251</v>
+        <v>6700785</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2034,19 +2040,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112323368</v>
+        <v>112323374</v>
       </c>
       <c r="B15" t="n">
         <v>77650</v>
@@ -2086,10 +2092,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>376713</v>
+        <v>376704</v>
       </c>
       <c r="R15" t="n">
-        <v>6700923</v>
+        <v>6700726</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2148,10 +2154,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112322623</v>
+        <v>112322559</v>
       </c>
       <c r="B16" t="n">
-        <v>73834</v>
+        <v>77650</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2164,21 +2170,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2188,10 +2194,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>376691</v>
+        <v>376483</v>
       </c>
       <c r="R16" t="n">
-        <v>6700659</v>
+        <v>6700251</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2250,10 +2256,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112322631</v>
+        <v>112323384</v>
       </c>
       <c r="B17" t="n">
-        <v>77650</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2262,38 +2268,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>376695</v>
+        <v>376629</v>
       </c>
       <c r="R17" t="n">
-        <v>6700705</v>
+        <v>6700378</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2340,22 +2346,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112322618</v>
+        <v>112322560</v>
       </c>
       <c r="B18" t="n">
-        <v>77650</v>
+        <v>81385</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2368,21 +2374,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2392,10 +2398,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>376594</v>
+        <v>376713</v>
       </c>
       <c r="R18" t="n">
-        <v>6700416</v>
+        <v>6700739</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2454,7 +2460,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112323386</v>
+        <v>112323368</v>
       </c>
       <c r="B19" t="n">
         <v>77650</v>
@@ -2494,10 +2500,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>376616</v>
+        <v>376713</v>
       </c>
       <c r="R19" t="n">
-        <v>6700310</v>
+        <v>6700923</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2556,10 +2562,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112323374</v>
+        <v>112323376</v>
       </c>
       <c r="B20" t="n">
-        <v>77650</v>
+        <v>81385</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2572,21 +2578,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2596,10 +2602,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>376704</v>
+        <v>376690</v>
       </c>
       <c r="R20" t="n">
-        <v>6700726</v>
+        <v>6700708</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2658,10 +2664,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112322598</v>
+        <v>112322551</v>
       </c>
       <c r="B21" t="n">
-        <v>77650</v>
+        <v>77685</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2674,21 +2680,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2698,10 +2704,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>376602</v>
+        <v>376720</v>
       </c>
       <c r="R21" t="n">
-        <v>6700269</v>
+        <v>6700740</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2760,10 +2766,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112322589</v>
+        <v>112322631</v>
       </c>
       <c r="B22" t="n">
-        <v>89517</v>
+        <v>77650</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2772,25 +2778,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2800,10 +2806,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>376532</v>
+        <v>376695</v>
       </c>
       <c r="R22" t="n">
-        <v>6700274</v>
+        <v>6700705</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2862,10 +2868,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112322599</v>
+        <v>112322623</v>
       </c>
       <c r="B23" t="n">
-        <v>77650</v>
+        <v>73834</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2878,21 +2884,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2902,10 +2908,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>376732</v>
+        <v>376691</v>
       </c>
       <c r="R23" t="n">
-        <v>6700749</v>
+        <v>6700659</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2964,10 +2970,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112322622</v>
+        <v>112322556</v>
       </c>
       <c r="B24" t="n">
-        <v>77650</v>
+        <v>73827</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2980,21 +2986,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>308</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3004,10 +3010,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>376710</v>
+        <v>376708</v>
       </c>
       <c r="R24" t="n">
-        <v>6700741</v>
+        <v>6700795</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3168,7 +3174,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112323370</v>
+        <v>112322564</v>
       </c>
       <c r="B26" t="n">
         <v>77650</v>
@@ -3204,14 +3210,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>376719</v>
+        <v>376557</v>
       </c>
       <c r="R26" t="n">
-        <v>6700859</v>
+        <v>6700269</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3258,22 +3264,22 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112322556</v>
+        <v>112323389</v>
       </c>
       <c r="B27" t="n">
-        <v>73827</v>
+        <v>77650</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3286,34 +3292,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>308</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>376708</v>
+        <v>376538</v>
       </c>
       <c r="R27" t="n">
-        <v>6700795</v>
+        <v>6700253</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3360,22 +3366,22 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112322566</v>
+        <v>112323383</v>
       </c>
       <c r="B28" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3384,38 +3390,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>376622</v>
+        <v>376619</v>
       </c>
       <c r="R28" t="n">
-        <v>6700395</v>
+        <v>6700383</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3456,29 +3462,28 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112322560</v>
+        <v>112323382</v>
       </c>
       <c r="B29" t="n">
-        <v>81385</v>
+        <v>90814</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3487,38 +3492,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1312</v>
+        <v>4364</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>376713</v>
+        <v>376622</v>
       </c>
       <c r="R29" t="n">
-        <v>6700739</v>
+        <v>6700398</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3565,19 +3570,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112323371</v>
+        <v>112323372</v>
       </c>
       <c r="B30" t="n">
         <v>77650</v>
@@ -3617,10 +3622,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>376715</v>
+        <v>376710</v>
       </c>
       <c r="R30" t="n">
-        <v>6700826</v>
+        <v>6700806</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3679,7 +3684,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112322567</v>
+        <v>112322573</v>
       </c>
       <c r="B31" t="n">
         <v>77650</v>
@@ -3719,10 +3724,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>376705</v>
+        <v>376714</v>
       </c>
       <c r="R31" t="n">
-        <v>6700777</v>
+        <v>6700904</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3781,10 +3786,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112323385</v>
+        <v>112323386</v>
       </c>
       <c r="B32" t="n">
-        <v>85850</v>
+        <v>77650</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3797,21 +3802,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3821,10 +3826,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>376622</v>
+        <v>376616</v>
       </c>
       <c r="R32" t="n">
-        <v>6700336</v>
+        <v>6700310</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3883,10 +3888,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112323388</v>
+        <v>112323385</v>
       </c>
       <c r="B33" t="n">
-        <v>5113</v>
+        <v>85850</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3895,43 +3900,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>510</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>376539</v>
+        <v>376622</v>
       </c>
       <c r="R33" t="n">
-        <v>6700257</v>
+        <v>6700336</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112322551</v>
+        <v>112323387</v>
       </c>
       <c r="B34" t="n">
         <v>77685</v>
@@ -4026,14 +4026,14 @@
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>376720</v>
+        <v>376577</v>
       </c>
       <c r="R34" t="n">
-        <v>6700740</v>
+        <v>6700273</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4080,19 +4080,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112323373</v>
+        <v>112322618</v>
       </c>
       <c r="B35" t="n">
         <v>77650</v>
@@ -4128,14 +4128,14 @@
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>376721</v>
+        <v>376594</v>
       </c>
       <c r="R35" t="n">
-        <v>6700785</v>
+        <v>6700416</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4182,22 +4182,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112323382</v>
+        <v>112322599</v>
       </c>
       <c r="B36" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4206,38 +4206,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>376622</v>
+        <v>376732</v>
       </c>
       <c r="R36" t="n">
-        <v>6700398</v>
+        <v>6700749</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4284,19 +4284,19 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112322564</v>
+        <v>112323370</v>
       </c>
       <c r="B37" t="n">
         <v>77650</v>
@@ -4332,14 +4332,14 @@
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>376557</v>
+        <v>376719</v>
       </c>
       <c r="R37" t="n">
-        <v>6700269</v>
+        <v>6700859</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4386,22 +4386,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112323375</v>
+        <v>112323371</v>
       </c>
       <c r="B38" t="n">
-        <v>81385</v>
+        <v>77650</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4414,21 +4414,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4438,10 +4438,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>376686</v>
+        <v>376715</v>
       </c>
       <c r="R38" t="n">
-        <v>6700716</v>
+        <v>6700826</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>

--- a/artfynd/A 12370-2022.xlsx
+++ b/artfynd/A 12370-2022.xlsx
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112322598</v>
+        <v>112323375</v>
       </c>
       <c r="B8" t="n">
-        <v>77650</v>
+        <v>81385</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1348,34 +1348,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>376602</v>
+        <v>376686</v>
       </c>
       <c r="R8" t="n">
-        <v>6700269</v>
+        <v>6700716</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1422,22 +1422,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112323375</v>
+        <v>112323388</v>
       </c>
       <c r="B9" t="n">
-        <v>81385</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1446,38 +1446,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>376686</v>
+        <v>376539</v>
       </c>
       <c r="R9" t="n">
-        <v>6700716</v>
+        <v>6700257</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1536,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112323388</v>
+        <v>112322567</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1548,43 +1553,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>376539</v>
+        <v>376705</v>
       </c>
       <c r="R10" t="n">
-        <v>6700257</v>
+        <v>6700777</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1631,19 +1631,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112322567</v>
+        <v>112322598</v>
       </c>
       <c r="B11" t="n">
         <v>77650</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>376705</v>
+        <v>376602</v>
       </c>
       <c r="R11" t="n">
-        <v>6700777</v>
+        <v>6700269</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1745,10 +1745,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112322566</v>
+        <v>112323374</v>
       </c>
       <c r="B12" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1757,38 +1757,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>376622</v>
+        <v>376704</v>
       </c>
       <c r="R12" t="n">
-        <v>6700395</v>
+        <v>6700726</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1829,29 +1829,28 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112322589</v>
+        <v>112322566</v>
       </c>
       <c r="B13" t="n">
-        <v>89517</v>
+        <v>90814</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1864,21 +1863,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1888,10 +1887,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>376532</v>
+        <v>376622</v>
       </c>
       <c r="R13" t="n">
-        <v>6700274</v>
+        <v>6700395</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1932,6 +1931,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -1950,10 +1950,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112323373</v>
+        <v>112322589</v>
       </c>
       <c r="B14" t="n">
-        <v>77650</v>
+        <v>89517</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1962,38 +1962,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>376721</v>
+        <v>376532</v>
       </c>
       <c r="R14" t="n">
-        <v>6700785</v>
+        <v>6700274</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2040,19 +2040,19 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112323374</v>
+        <v>112323373</v>
       </c>
       <c r="B15" t="n">
         <v>77650</v>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>376704</v>
+        <v>376721</v>
       </c>
       <c r="R15" t="n">
-        <v>6700726</v>
+        <v>6700785</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112323376</v>
+        <v>112322551</v>
       </c>
       <c r="B20" t="n">
-        <v>81385</v>
+        <v>77685</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2578,34 +2578,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>185</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>376690</v>
+        <v>376720</v>
       </c>
       <c r="R20" t="n">
-        <v>6700708</v>
+        <v>6700740</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2652,22 +2652,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112322551</v>
+        <v>112322631</v>
       </c>
       <c r="B21" t="n">
-        <v>77685</v>
+        <v>77650</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2680,21 +2680,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>376720</v>
+        <v>376695</v>
       </c>
       <c r="R21" t="n">
-        <v>6700740</v>
+        <v>6700705</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112322631</v>
+        <v>112322623</v>
       </c>
       <c r="B22" t="n">
-        <v>77650</v>
+        <v>73834</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2782,21 +2782,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2806,10 +2806,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>376695</v>
+        <v>376691</v>
       </c>
       <c r="R22" t="n">
-        <v>6700705</v>
+        <v>6700659</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112322623</v>
+        <v>112323376</v>
       </c>
       <c r="B23" t="n">
-        <v>73834</v>
+        <v>81385</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2884,34 +2884,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>376691</v>
+        <v>376690</v>
       </c>
       <c r="R23" t="n">
-        <v>6700659</v>
+        <v>6700708</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2958,12 +2958,12 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112323372</v>
+        <v>112322573</v>
       </c>
       <c r="B30" t="n">
         <v>77650</v>
@@ -3618,14 +3618,14 @@
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Jonsmyren, Vrm</t>
+          <t>Gräsviggen, Vrm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>376710</v>
+        <v>376714</v>
       </c>
       <c r="R30" t="n">
-        <v>6700806</v>
+        <v>6700904</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3672,19 +3672,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>anders tedeholm</t>
+          <t>Helena Malmestrand</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112322573</v>
+        <v>112323372</v>
       </c>
       <c r="B31" t="n">
         <v>77650</v>
@@ -3720,14 +3720,14 @@
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Gräsviggen, Vrm</t>
+          <t>Jonsmyren, Vrm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>376714</v>
+        <v>376710</v>
       </c>
       <c r="R31" t="n">
-        <v>6700904</v>
+        <v>6700806</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3774,12 +3774,12 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>anders tedeholm</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
